--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5659E67C-64F2-4841-8704-C16CDA1C7EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90329C53-5A1F-49EB-8310-58318047E650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,15 +971,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.DrawdownStatus
-0:正常
-1:未放行(ActFg=1時顯示用)
-2:產檔後訂正
-3:產檔後修正
-4:產檔後改單筆匯款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode.AmlCheckItem
 0:非可疑名單/已完成名單確認
 1:需審查/確認
@@ -1018,6 +1009,16 @@
 X:付款沖回
 Q:AML相似名單確認中
 U:禁止交易(AML)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.DrawdownStatus
+0:正常
+1:未放行(ActFg=1時顯示用)
+2:產檔後訂正
+3:產檔後修正
+4:產檔後改單筆匯款
+5:被修正或訂正(顯示用)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2022,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2247,7 +2248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="97.2">
+    <row r="14" spans="1:7" ht="113.4">
       <c r="A14" s="18">
         <v>6</v>
       </c>
@@ -2265,7 +2266,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="23" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2468,7 +2469,7 @@
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.4">
@@ -2489,7 +2490,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2510,7 +2511,7 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="356.4">
@@ -2531,7 +2532,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90329C53-5A1F-49EB-8310-58318047E650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F32DE-14DF-4B55-B8C2-0FDC9D4B36FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="235">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1020,6 +1020,10 @@
 4:產檔後改單筆匯款
 5:被修正或訂正(顯示用)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4703</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2023,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2626,11 +2630,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2707,6 +2711,17 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E649CC0A-216F-4613-8D6C-BC81EBD811A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2911C1-467F-400D-9E76-E84B91EBEF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="提出檔規格" sheetId="3" r:id="rId3"/>
     <sheet name="回銷檔" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="240">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -130,10 +130,6 @@
     <t>匯款金額</t>
   </si>
   <si>
-    <t>TitaTlrNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>FacmNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -154,14 +150,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>經辦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易序號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>額度編號</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -189,10 +177,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>BankRemit</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -200,10 +184,6 @@
     <t>Decimald</t>
   </si>
   <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>findL4001A</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -348,10 +328,6 @@
   <si>
     <t>BatchNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>交易進行記號</t>
@@ -947,15 +923,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TitaTlrNo = ,AND TitaTxtNo = ,AND DrawdownCode =</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>findL4104BFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND DrawdownCode =</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1049,6 +1017,34 @@
   <si>
     <t>DECIMALD</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelDy</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登放日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登放序號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelDy,RelNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RelNo = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1455,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,6 +1699,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2066,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2082,12 +2081,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>18</v>
@@ -2097,10 +2096,10 @@
       <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" s="66" t="s">
         <v>3</v>
@@ -2110,12 +2109,12 @@
       <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="69" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="D3" s="70" t="s">
         <v>17</v>
@@ -2125,10 +2124,10 @@
       <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="69"/>
       <c r="D4" s="70"/>
       <c r="E4" s="67"/>
@@ -2136,12 +2135,12 @@
       <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="69" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="67"/>
@@ -2149,10 +2148,10 @@
       <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="85"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="61"/>
       <c r="D6" s="70"/>
       <c r="E6" s="67"/>
@@ -2160,10 +2159,10 @@
       <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="86"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="61"/>
       <c r="D7" s="70"/>
       <c r="E7" s="67"/>
@@ -2194,17 +2193,17 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="75">
+      <c r="A9" s="84">
         <v>1</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="81">
         <v>8</v>
@@ -2217,34 +2216,34 @@
         <v>2</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E10" s="75">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F10" s="75"/>
       <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="75">
+      <c r="A11" s="84">
         <v>3</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="75">
+        <v>19</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="81">
         <v>8</v>
       </c>
       <c r="F11" s="75"/>
@@ -2255,41 +2254,41 @@
         <v>4</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="75">
         <v>6</v>
       </c>
       <c r="F12" s="75"/>
       <c r="G12" s="80" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="97.2">
-      <c r="A13" s="75">
+      <c r="A13" s="84">
         <v>5</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="75">
         <v>2</v>
       </c>
       <c r="F13" s="75"/>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="113.4">
@@ -2297,34 +2296,34 @@
         <v>6</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" s="75">
         <v>1</v>
       </c>
       <c r="F14" s="75"/>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="75">
+      <c r="A15" s="84">
         <v>7</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" s="76" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="75">
         <v>3</v>
@@ -2337,13 +2336,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" s="76" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="75">
         <v>4</v>
@@ -2352,17 +2351,17 @@
       <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="75">
+      <c r="A17" s="84">
         <v>9</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" s="76" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="75">
         <v>14</v>
@@ -2375,13 +2374,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C18" s="76" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E18" s="75">
         <v>7</v>
@@ -2390,17 +2389,17 @@
       <c r="G18" s="72"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="75">
+      <c r="A19" s="84">
         <v>11</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="75" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="75">
         <v>3</v>
@@ -2413,13 +2412,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="75">
         <v>3</v>
@@ -2428,17 +2427,17 @@
       <c r="G20" s="72"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="75">
+      <c r="A21" s="84">
         <v>13</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" s="75">
         <v>100</v>
@@ -2451,13 +2450,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E22" s="75">
         <v>10</v>
@@ -2466,17 +2465,17 @@
       <c r="G22" s="72"/>
     </row>
     <row r="23" spans="1:8" s="60" customFormat="1">
-      <c r="A23" s="75">
+      <c r="A23" s="84">
         <v>15</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E23" s="78">
         <v>8</v>
@@ -2489,13 +2488,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" s="75">
         <v>1</v>
@@ -2504,17 +2503,17 @@
       <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="75">
+      <c r="A25" s="84">
         <v>17</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="75" t="s">
         <v>38</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>41</v>
       </c>
       <c r="E25" s="75">
         <v>100</v>
@@ -2527,13 +2526,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="76" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E26" s="75">
         <v>3</v>
@@ -2542,17 +2541,17 @@
       <c r="G26" s="72"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="75">
+      <c r="A27" s="84">
         <v>19</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" s="76" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="75">
         <v>16</v>
@@ -2567,41 +2566,41 @@
         <v>20</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E28" s="75">
         <v>1</v>
       </c>
       <c r="F28" s="72"/>
       <c r="G28" s="79" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
-      <c r="A29" s="75">
+      <c r="A29" s="84">
         <v>21</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E29" s="75">
         <v>1</v>
       </c>
       <c r="F29" s="75"/>
       <c r="G29" s="79" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2609,41 +2608,41 @@
         <v>22</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30" s="75">
         <v>500</v>
       </c>
       <c r="F30" s="75"/>
       <c r="G30" s="80" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="356.4">
-      <c r="A31" s="75">
+      <c r="A31" s="84">
         <v>23</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E31" s="75">
         <v>1</v>
       </c>
       <c r="F31" s="75"/>
       <c r="G31" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2651,13 +2650,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="72"/>
@@ -2665,17 +2664,17 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="75">
+      <c r="A33" s="84">
         <v>25</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E33" s="81">
         <v>6</v>
@@ -2688,30 +2687,30 @@
         <v>26</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E34" s="81"/>
       <c r="F34" s="72"/>
       <c r="G34" s="83"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="75">
+      <c r="A35" s="84">
         <v>27</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E35" s="81">
         <v>6</v>
@@ -2739,9 +2738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2765,59 +2764,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2849,7 +2851,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2861,7 +2863,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.8" thickBot="1">
       <c r="A2" s="27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2873,25 +2875,25 @@
     </row>
     <row r="3" spans="1:8" ht="41.4">
       <c r="A3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="H3" s="26"/>
     </row>
@@ -2900,22 +2902,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="30">
         <v>12</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -2924,22 +2926,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="30">
         <v>12</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -2948,22 +2950,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H6" s="13"/>
     </row>
@@ -2972,22 +2974,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="30">
         <v>1</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -2996,22 +2998,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D8" s="30">
         <v>7</v>
       </c>
       <c r="E8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>113</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3020,22 +3022,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="35">
         <v>1</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -3044,22 +3046,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="35">
         <v>1</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H10" s="13"/>
     </row>
@@ -3068,25 +3070,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="35">
         <v>15</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3094,22 +3096,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="35">
         <v>40</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -3118,25 +3120,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="35">
         <v>45</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="69">
@@ -3144,22 +3146,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="35">
         <v>1</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -3168,22 +3170,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="30">
         <v>9</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -3192,25 +3194,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16" s="35">
         <v>7</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3218,22 +3220,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D17" s="30">
         <v>7</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -3242,22 +3244,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D18" s="30">
         <v>7</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -3266,22 +3268,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="35">
         <v>3</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -3290,22 +3292,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="35">
         <v>4</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H20" s="13"/>
     </row>
@@ -3314,22 +3316,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="35">
         <v>16</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H21" s="13"/>
     </row>
@@ -3338,22 +3340,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -3362,22 +3364,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23" s="30">
         <v>8</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H23" s="13"/>
     </row>
@@ -3386,22 +3388,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="30">
         <v>2</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H24" s="13"/>
     </row>
@@ -3410,22 +3412,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D25" s="30">
         <v>8</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -3434,70 +3436,70 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D26" s="30">
         <v>7</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="88"/>
+        <v>99</v>
+      </c>
+      <c r="H26" s="89"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="28">
         <v>24</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D27" s="30">
         <v>7</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="88"/>
+        <v>99</v>
+      </c>
+      <c r="H27" s="89"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="28">
         <v>25</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D28" s="30">
         <v>8</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H28" s="13"/>
     </row>
@@ -3506,22 +3508,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D29" s="30">
         <v>10</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H29" s="13"/>
     </row>
@@ -3530,22 +3532,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D30" s="30">
         <v>7</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H30" s="13"/>
     </row>
@@ -3554,22 +3556,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31" s="30">
         <v>1</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H31" s="13"/>
     </row>
@@ -3578,22 +3580,22 @@
         <v>29</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D32" s="30">
         <v>1</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -3602,22 +3604,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33" s="30">
         <v>1</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H33" s="13"/>
     </row>
@@ -3626,22 +3628,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" s="35">
         <v>12</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H34" s="13"/>
     </row>
@@ -3650,22 +3652,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D35" s="30">
         <v>6</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H35" s="13"/>
     </row>
@@ -3674,22 +3676,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D36" s="30">
         <v>1</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H36" s="13"/>
     </row>
@@ -3698,22 +3700,22 @@
         <v>34</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" s="30">
         <v>1</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H37" s="13"/>
     </row>
@@ -3722,22 +3724,22 @@
         <v>35</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D38" s="30">
         <v>1</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H38" s="13"/>
     </row>
@@ -3746,22 +3748,22 @@
         <v>36</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D39" s="30">
         <v>12</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H39" s="13"/>
     </row>
@@ -3770,25 +3772,25 @@
         <v>37</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" s="35">
         <v>1</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3796,22 +3798,22 @@
         <v>38</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D41" s="30">
         <v>1</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H41" s="13"/>
     </row>
@@ -3820,22 +3822,22 @@
         <v>39</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" s="30">
         <v>6</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H42" s="13"/>
     </row>
@@ -3844,22 +3846,22 @@
         <v>40</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D43" s="30">
         <v>10</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H43" s="13"/>
     </row>
@@ -3868,22 +3870,22 @@
         <v>41</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D44" s="30">
         <v>7</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H44" s="13"/>
     </row>
@@ -3892,22 +3894,22 @@
         <v>42</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D45" s="30">
         <v>10</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H45" s="13"/>
     </row>
@@ -3916,22 +3918,22 @@
         <v>43</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D46" s="30">
         <v>7</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H46" s="13"/>
     </row>
@@ -3940,22 +3942,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D47" s="30">
         <v>12</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H47" s="13"/>
     </row>
@@ -3964,22 +3966,22 @@
         <v>45</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D48" s="30">
         <v>1</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H48" s="13"/>
     </row>
@@ -3988,22 +3990,22 @@
         <v>46</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D49" s="30">
         <v>5</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H49" s="13"/>
     </row>
@@ -4012,22 +4014,22 @@
         <v>47</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D50" s="30">
         <v>80</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H50" s="13"/>
     </row>
@@ -4036,22 +4038,22 @@
         <v>48</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D51" s="30">
         <v>1</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H51" s="13"/>
     </row>
@@ -4060,22 +4062,22 @@
         <v>49</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" s="35">
         <v>10</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H52" s="13"/>
     </row>
@@ -4084,22 +4086,22 @@
         <v>50</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D53" s="30">
         <v>12</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H53" s="13"/>
     </row>
@@ -4108,22 +4110,22 @@
         <v>51</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D54" s="30">
         <v>1</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H54" s="13"/>
     </row>
@@ -4132,22 +4134,22 @@
         <v>52</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D55" s="30">
         <v>2</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H55" s="13"/>
     </row>
@@ -4156,22 +4158,22 @@
         <v>53</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D56" s="44">
         <v>12</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H56" s="13"/>
     </row>
@@ -4180,25 +4182,25 @@
         <v>54</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D57" s="35">
         <v>12</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4206,22 +4208,22 @@
         <v>55</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D58" s="30">
         <v>7</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H58" s="13"/>
     </row>
@@ -4230,22 +4232,22 @@
         <v>56</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D59" s="30">
         <v>8</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H59" s="13"/>
     </row>
@@ -4254,22 +4256,22 @@
         <v>57</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D60" s="30">
         <v>7</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H60" s="13"/>
     </row>
@@ -4278,22 +4280,22 @@
         <v>58</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D61" s="30">
         <v>8</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H61" s="13"/>
     </row>
@@ -4302,22 +4304,22 @@
         <v>59</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D62" s="30">
         <v>10</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H62" s="13"/>
     </row>
@@ -4326,22 +4328,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D63" s="30">
         <v>10</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H63" s="13"/>
     </row>
@@ -4350,22 +4352,22 @@
         <v>61</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D64" s="30">
         <v>8</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H64" s="17"/>
     </row>
@@ -4377,22 +4379,22 @@
         <v>26</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D65" s="35">
         <v>3</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4400,22 +4402,22 @@
         <v>63</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D66" s="30">
         <v>1</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H66" s="13"/>
     </row>
@@ -4424,22 +4426,22 @@
         <v>64</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D67" s="30">
         <v>10</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H67" s="13"/>
     </row>
@@ -4448,22 +4450,22 @@
         <v>65</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D68" s="30">
         <v>40</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H68" s="13"/>
     </row>
@@ -4472,22 +4474,22 @@
         <v>66</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D69" s="46">
         <v>1</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H69" s="18"/>
     </row>
@@ -4496,22 +4498,22 @@
         <v>67</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D70" s="30">
         <v>6</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H70" s="19"/>
     </row>
@@ -4520,22 +4522,22 @@
         <v>68</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D71" s="30">
         <v>10</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H71" s="19"/>
     </row>
@@ -4556,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B66300-3859-4B06-8E4B-B3D1526EF6DA}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4572,7 +4574,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="52" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -4594,22 +4596,22 @@
     </row>
     <row r="3" spans="1:8" ht="27.6">
       <c r="A3" s="56" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
@@ -4619,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D4" s="57">
         <v>12</v>
@@ -4637,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D5" s="57">
         <v>12</v>
@@ -4655,17 +4657,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D6" s="57">
         <v>1</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="48" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -4675,19 +4677,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D7" s="57">
         <v>7</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -4697,10 +4699,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D8" s="57">
         <v>15</v>
@@ -4715,10 +4717,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D9" s="57">
         <v>40</v>
@@ -4733,10 +4735,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D10" s="57">
         <v>9</v>
@@ -4751,19 +4753,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D11" s="57">
         <v>7</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
@@ -4773,19 +4775,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D12" s="57">
         <v>7</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2911C1-467F-400D-9E76-E84B91EBEF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3AB8D9-E127-4408-BCB5-C0EFED009046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,10 +222,6 @@
   <si>
     <t xml:space="preserve">CustNo = </t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DrawdownCode</t>
@@ -1019,31 +1015,33 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>RelNo</t>
+    <t>經辦</t>
+  </si>
+  <si>
+    <t>交易序號</t>
+  </si>
+  <si>
+    <t>AcDate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RelDy</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登放日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登放序號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RelDy,RelNo</t>
+    <t>TitaTlrNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo = ,AND TitaTxtNo = ,AND DrawdownCode =</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">RelNo = </t>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND DrawdownCode =</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2065,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2099,7 +2097,7 @@
       <c r="A2" s="85"/>
       <c r="B2" s="86"/>
       <c r="C2" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="66" t="s">
         <v>3</v>
@@ -2200,7 +2198,7 @@
         <v>234</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>41</v>
@@ -2216,16 +2214,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D10" s="75" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="75">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F10" s="75"/>
       <c r="G10" s="72"/>
@@ -2235,13 +2233,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>41</v>
+        <v>233</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="81">
         <v>8</v>
@@ -2254,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>20</v>
@@ -2267,7 +2265,7 @@
       </c>
       <c r="F12" s="75"/>
       <c r="G12" s="80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="97.2">
@@ -2275,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>21</v>
@@ -2288,7 +2286,7 @@
       </c>
       <c r="F13" s="75"/>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="113.4">
@@ -2299,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>36</v>
@@ -2309,7 +2307,7 @@
       </c>
       <c r="F14" s="75"/>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2434,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>38</v>
@@ -2450,10 +2448,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="78" t="s">
         <v>37</v>
@@ -2469,13 +2467,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="78">
         <v>8</v>
@@ -2488,10 +2486,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24" s="78" t="s">
         <v>37</v>
@@ -2545,7 +2543,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="76" t="s">
         <v>27</v>
@@ -2566,20 +2564,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="D28" s="81" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>56</v>
       </c>
       <c r="E28" s="75">
         <v>1</v>
       </c>
       <c r="F28" s="72"/>
       <c r="G28" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -2587,20 +2585,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="75">
         <v>1</v>
       </c>
       <c r="F29" s="75"/>
       <c r="G29" s="79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2608,10 +2606,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="75" t="s">
         <v>38</v>
@@ -2621,7 +2619,7 @@
       </c>
       <c r="F30" s="75"/>
       <c r="G30" s="80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="356.4">
@@ -2629,10 +2627,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="75" t="s">
         <v>37</v>
@@ -2642,7 +2640,7 @@
       </c>
       <c r="F31" s="75"/>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2650,13 +2648,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="D32" s="75" t="s">
         <v>58</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>59</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="72"/>
@@ -2668,13 +2666,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="D33" s="75" t="s">
         <v>61</v>
-      </c>
-      <c r="D33" s="75" t="s">
-        <v>62</v>
       </c>
       <c r="E33" s="81">
         <v>6</v>
@@ -2687,13 +2685,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="D34" s="75" t="s">
         <v>64</v>
-      </c>
-      <c r="D34" s="75" t="s">
-        <v>65</v>
       </c>
       <c r="E34" s="81"/>
       <c r="F34" s="72"/>
@@ -2704,13 +2702,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="79" t="s">
-        <v>67</v>
-      </c>
       <c r="D35" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="81">
         <v>6</v>
@@ -2740,7 +2738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2780,46 +2778,46 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2849,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2863,7 +2861,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.8" thickBot="1">
       <c r="A2" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2875,25 +2873,25 @@
     </row>
     <row r="3" spans="1:8" ht="41.4">
       <c r="A3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="H3" s="26"/>
     </row>
@@ -2902,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>37</v>
@@ -2911,13 +2909,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -2926,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>37</v>
@@ -2935,13 +2933,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -2950,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>37</v>
@@ -2959,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="13"/>
     </row>
@@ -2974,7 +2972,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>37</v>
@@ -2983,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -2998,22 +2996,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="D8" s="30">
         <v>7</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3022,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>37</v>
@@ -3031,13 +3029,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -3046,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>37</v>
@@ -3055,13 +3053,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="H10" s="13"/>
     </row>
@@ -3070,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>37</v>
@@ -3079,16 +3077,16 @@
         <v>15</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3096,7 +3094,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>37</v>
@@ -3105,13 +3103,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -3120,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>37</v>
@@ -3129,16 +3127,16 @@
         <v>45</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="69">
@@ -3146,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>37</v>
@@ -3155,13 +3153,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -3170,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>37</v>
@@ -3179,13 +3177,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -3194,25 +3192,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="35">
         <v>7</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3220,22 +3218,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="30">
         <v>7</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -3244,22 +3242,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="30">
         <v>7</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -3268,7 +3266,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>37</v>
@@ -3277,13 +3275,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -3292,7 +3290,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>37</v>
@@ -3301,13 +3299,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H20" s="13"/>
     </row>
@@ -3316,7 +3314,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>37</v>
@@ -3325,13 +3323,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="13"/>
     </row>
@@ -3340,22 +3338,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="D22" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="E22" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -3364,7 +3362,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>37</v>
@@ -3373,13 +3371,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="13"/>
     </row>
@@ -3388,7 +3386,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>37</v>
@@ -3397,13 +3395,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="13"/>
     </row>
@@ -3412,7 +3410,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>37</v>
@@ -3421,13 +3419,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -3436,22 +3434,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="30">
         <v>7</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="89"/>
     </row>
@@ -3460,22 +3458,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="30">
         <v>7</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="89"/>
     </row>
@@ -3484,7 +3482,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>37</v>
@@ -3493,13 +3491,13 @@
         <v>8</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="13"/>
     </row>
@@ -3508,22 +3506,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="30">
         <v>10</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="13"/>
     </row>
@@ -3532,22 +3530,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="30">
         <v>7</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="13"/>
     </row>
@@ -3556,7 +3554,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>37</v>
@@ -3565,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="13"/>
     </row>
@@ -3580,7 +3578,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>37</v>
@@ -3589,13 +3587,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -3604,7 +3602,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>37</v>
@@ -3613,13 +3611,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H33" s="13"/>
     </row>
@@ -3628,7 +3626,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>37</v>
@@ -3637,13 +3635,13 @@
         <v>12</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H34" s="13"/>
     </row>
@@ -3652,7 +3650,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>37</v>
@@ -3661,13 +3659,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="13"/>
     </row>
@@ -3676,7 +3674,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>37</v>
@@ -3685,13 +3683,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" s="13"/>
     </row>
@@ -3700,7 +3698,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>37</v>
@@ -3709,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="13"/>
     </row>
@@ -3724,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>37</v>
@@ -3733,13 +3731,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" s="13"/>
     </row>
@@ -3748,7 +3746,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>37</v>
@@ -3757,13 +3755,13 @@
         <v>12</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="13"/>
     </row>
@@ -3772,7 +3770,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>37</v>
@@ -3781,16 +3779,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F40" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="H40" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3798,7 +3796,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>37</v>
@@ -3807,13 +3805,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H41" s="13"/>
     </row>
@@ -3822,7 +3820,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>37</v>
@@ -3831,13 +3829,13 @@
         <v>6</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="13"/>
     </row>
@@ -3846,22 +3844,22 @@
         <v>40</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="30">
         <v>10</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" s="13"/>
     </row>
@@ -3870,7 +3868,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>37</v>
@@ -3879,13 +3877,13 @@
         <v>7</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H44" s="13"/>
     </row>
@@ -3894,7 +3892,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>37</v>
@@ -3903,13 +3901,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H45" s="13"/>
     </row>
@@ -3918,22 +3916,22 @@
         <v>43</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="30">
         <v>7</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H46" s="13"/>
     </row>
@@ -3942,7 +3940,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>37</v>
@@ -3951,13 +3949,13 @@
         <v>12</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" s="13"/>
     </row>
@@ -3966,7 +3964,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>37</v>
@@ -3975,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="13"/>
     </row>
@@ -3990,7 +3988,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>37</v>
@@ -3999,13 +3997,13 @@
         <v>5</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H49" s="13"/>
     </row>
@@ -4014,7 +4012,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>37</v>
@@ -4023,13 +4021,13 @@
         <v>80</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H50" s="13"/>
     </row>
@@ -4038,7 +4036,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>37</v>
@@ -4047,13 +4045,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H51" s="13"/>
     </row>
@@ -4062,7 +4060,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>37</v>
@@ -4071,13 +4069,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H52" s="13"/>
     </row>
@@ -4086,7 +4084,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="43" t="s">
         <v>37</v>
@@ -4095,13 +4093,13 @@
         <v>12</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="13"/>
     </row>
@@ -4110,7 +4108,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="43" t="s">
         <v>37</v>
@@ -4119,13 +4117,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H54" s="13"/>
     </row>
@@ -4134,7 +4132,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>37</v>
@@ -4143,13 +4141,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H55" s="13"/>
     </row>
@@ -4158,7 +4156,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>37</v>
@@ -4167,13 +4165,13 @@
         <v>12</v>
       </c>
       <c r="E56" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="G56" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H56" s="13"/>
     </row>
@@ -4182,7 +4180,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>37</v>
@@ -4191,16 +4189,16 @@
         <v>12</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F57" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G57" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>187</v>
-      </c>
       <c r="H57" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4208,22 +4206,22 @@
         <v>55</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="30">
         <v>7</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H58" s="13"/>
     </row>
@@ -4232,7 +4230,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>37</v>
@@ -4241,13 +4239,13 @@
         <v>8</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H59" s="13"/>
     </row>
@@ -4256,22 +4254,22 @@
         <v>57</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="30">
         <v>7</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H60" s="13"/>
     </row>
@@ -4280,7 +4278,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>37</v>
@@ -4289,13 +4287,13 @@
         <v>8</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H61" s="13"/>
     </row>
@@ -4304,22 +4302,22 @@
         <v>59</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" s="30">
         <v>10</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H62" s="13"/>
     </row>
@@ -4328,22 +4326,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="30">
         <v>10</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H63" s="13"/>
     </row>
@@ -4352,7 +4350,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>37</v>
@@ -4361,13 +4359,13 @@
         <v>8</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H64" s="17"/>
     </row>
@@ -4385,16 +4383,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="H65" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4402,7 +4400,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>37</v>
@@ -4411,13 +4409,13 @@
         <v>1</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H66" s="13"/>
     </row>
@@ -4426,7 +4424,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>37</v>
@@ -4435,13 +4433,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H67" s="13"/>
     </row>
@@ -4450,7 +4448,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>37</v>
@@ -4459,13 +4457,13 @@
         <v>40</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H68" s="13"/>
     </row>
@@ -4474,7 +4472,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>37</v>
@@ -4483,13 +4481,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H69" s="18"/>
     </row>
@@ -4498,7 +4496,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>37</v>
@@ -4507,13 +4505,13 @@
         <v>6</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H70" s="19"/>
     </row>
@@ -4522,22 +4520,22 @@
         <v>68</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="30">
         <v>10</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H71" s="19"/>
     </row>
@@ -4574,7 +4572,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -4596,22 +4594,22 @@
     </row>
     <row r="3" spans="1:8" ht="27.6">
       <c r="A3" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="C3" s="56" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>209</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
@@ -4621,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>212</v>
       </c>
       <c r="D4" s="57">
         <v>12</v>
@@ -4639,10 +4637,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="57">
         <v>12</v>
@@ -4657,17 +4655,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="57">
         <v>1</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -4677,19 +4675,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="57">
         <v>7</v>
       </c>
       <c r="E7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>214</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>215</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -4699,10 +4697,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="57">
         <v>15</v>
@@ -4717,10 +4715,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="57">
         <v>40</v>
@@ -4735,10 +4733,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="57">
         <v>9</v>
@@ -4753,19 +4751,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="57">
         <v>7</v>
       </c>
       <c r="E11" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="59" t="s">
         <v>214</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>215</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
@@ -4775,19 +4773,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="57">
         <v>7</v>
       </c>
       <c r="E12" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="59" t="s">
         <v>214</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>215</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1145EBD1-67C8-4439-BC4A-2F331BFF8FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB274A7-6079-4570-A408-190224DAD78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,20 +19,11 @@
     <sheet name="回銷檔" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="249">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1059,6 +1050,26 @@
   <si>
     <t>findL4901A2</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊資料轉換0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/2/9家興新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreRemitFlag</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心匯款記號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.非核心匯款
+1.核心匯款(1500萬(不含)以下)</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1277,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,6 +1299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,6 +1723,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2052,10 +2084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2638,74 +2670,101 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9" ht="32.4">
       <c r="A33" s="75">
         <v>25</v>
       </c>
-      <c r="B33" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="72"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="B33" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="82">
+        <v>1</v>
+      </c>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" s="85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="67">
         <v>26</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="72">
-        <v>6</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E34" s="72"/>
       <c r="G34" s="74"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="75">
         <v>27</v>
       </c>
       <c r="B35" s="69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="72"/>
+        <v>60</v>
+      </c>
+      <c r="E35" s="72">
+        <v>6</v>
+      </c>
       <c r="G35" s="74"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="75">
         <v>28</v>
       </c>
       <c r="B36" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="72"/>
+      <c r="G36" s="74"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="75">
+        <v>29</v>
+      </c>
+      <c r="B37" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D37" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E37" s="72">
         <v>6</v>
       </c>
-      <c r="G36" s="74"/>
+      <c r="G37" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB274A7-6079-4570-A408-190224DAD78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F71D09-5B3A-4E9D-BDDE-C2779770E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,15 +910,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.DrawdownCode2
-01:撥款(整批匯款)
-02:撥款(單筆匯款)
-04:退款台新(存款憑條)
-05:退款他行(整批匯款)
-11:退款新光(存款憑條)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode.AmlCheckItem
 0:非可疑名單/已完成名單確認
 1:需審查/確認
@@ -1070,6 +1061,16 @@
   <si>
     <t>0.非核心匯款
 1.核心匯款(1500萬(不含)以下)</t>
+  </si>
+  <si>
+    <t>CdCode.DrawdownCode2
+01:撥款(核心匯款)
+02:撥款(整批匯款)
+03:撥款(單筆匯款)
+04:退款台新(存款憑條)
+05:退款他行(核心匯款)
+11:退款新光(存款憑條)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1709,6 +1710,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1723,21 +1739,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2086,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2102,10 +2103,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="82"/>
       <c r="C1" s="55" t="s">
         <v>40</v>
       </c>
@@ -2117,8 +2118,8 @@
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="59" t="s">
         <v>66</v>
       </c>
@@ -2130,12 +2131,12 @@
       <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>17</v>
@@ -2145,10 +2146,10 @@
       <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="62"/>
       <c r="D4" s="63"/>
       <c r="E4" s="57"/>
@@ -2156,10 +2157,10 @@
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="62" t="s">
         <v>49</v>
       </c>
@@ -2169,10 +2170,10 @@
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="55"/>
       <c r="D6" s="63"/>
       <c r="E6" s="57"/>
@@ -2180,10 +2181,10 @@
       <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="55"/>
       <c r="D7" s="63"/>
       <c r="E7" s="57"/>
@@ -2218,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>19</v>
@@ -2236,10 +2237,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>37</v>
@@ -2254,10 +2255,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>37</v>
@@ -2272,20 +2273,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="D12" s="67" t="s">
         <v>239</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>240</v>
       </c>
       <c r="E12" s="72">
         <v>6</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2309,7 +2310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="97.2">
+    <row r="14" spans="1:7" ht="113.4">
       <c r="A14" s="67">
         <v>6</v>
       </c>
@@ -2327,7 +2328,7 @@
       </c>
       <c r="F14" s="67"/>
       <c r="G14" s="6" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="113.4">
@@ -2348,7 +2349,7 @@
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2467,7 +2468,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D22" s="67" t="s">
         <v>38</v>
@@ -2482,10 +2483,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>37</v>
@@ -2500,13 +2501,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="70">
         <v>8</v>
@@ -2518,10 +2519,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>37</v>
@@ -2604,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2625,7 +2626,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F31" s="67"/>
       <c r="G31" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="356.4">
@@ -2667,34 +2668,34 @@
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="32.4">
       <c r="A33" s="75">
         <v>25</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="D33" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="77">
+        <v>1</v>
+      </c>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="D33" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="82">
-        <v>1</v>
-      </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83" t="s">
-        <v>248</v>
-      </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="80" t="s">
         <v>244</v>
-      </c>
-      <c r="I33" s="85" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2820,7 +2821,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
@@ -2853,7 +2854,7 @@
         <v>215</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>214</v>
@@ -2864,7 +2865,7 @@
         <v>216</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>214</v>
@@ -3501,7 +3502,7 @@
       <c r="G26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="80"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="25">
@@ -3525,7 +3526,7 @@
       <c r="G27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="80"/>
+      <c r="H27" s="85"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="25">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F71D09-5B3A-4E9D-BDDE-C2779770E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36EDB0F-BC00-433D-B836-6CCE07EE75CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="252">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1071,6 +1071,18 @@
 05:退款他行(核心匯款)
 11:退款新光(存款憑條)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate DESC ,CreateDate DESC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBormNoFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2087,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2785,11 +2797,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2868,7 +2880,18 @@
         <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36EDB0F-BC00-433D-B836-6CCE07EE75CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00252FC3-FFB5-40A3-9921-FFA9C00247D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="251">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -233,10 +233,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -253,10 +249,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -1083,6 +1075,9 @@
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1777,9 +1772,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1817,9 +1812,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1852,26 +1847,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1904,26 +1882,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2099,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2133,7 +2094,7 @@
       <c r="A2" s="81"/>
       <c r="B2" s="82"/>
       <c r="C2" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>3</v>
@@ -2148,7 +2109,7 @@
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>17</v>
@@ -2231,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>19</v>
@@ -2249,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>37</v>
@@ -2267,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>37</v>
@@ -2285,20 +2246,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>237</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>239</v>
       </c>
       <c r="E12" s="72">
         <v>6</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2306,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>20</v>
@@ -2319,7 +2280,7 @@
       </c>
       <c r="F13" s="67"/>
       <c r="G13" s="71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="113.4">
@@ -2340,7 +2301,7 @@
       </c>
       <c r="F14" s="67"/>
       <c r="G14" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="113.4">
@@ -2351,7 +2312,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>36</v>
@@ -2361,7 +2322,7 @@
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2480,7 +2441,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D22" s="67" t="s">
         <v>38</v>
@@ -2495,10 +2456,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="70" t="s">
         <v>37</v>
@@ -2513,13 +2474,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E24" s="70">
         <v>8</v>
@@ -2531,10 +2492,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D25" s="70" t="s">
         <v>37</v>
@@ -2585,7 +2546,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>27</v>
@@ -2617,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2625,20 +2586,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="67">
         <v>1</v>
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2646,10 +2607,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="67" t="s">
         <v>38</v>
@@ -2659,7 +2620,7 @@
       </c>
       <c r="F31" s="67"/>
       <c r="G31" s="71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="356.4">
@@ -2667,10 +2628,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>37</v>
@@ -2680,7 +2641,7 @@
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="32.4">
@@ -2688,10 +2649,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D33" s="77" t="s">
         <v>36</v>
@@ -2701,13 +2662,13 @@
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H33" s="79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2721,7 +2682,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="E34" s="72"/>
       <c r="G34" s="74"/>
@@ -2732,13 +2693,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="67" t="s">
         <v>59</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>60</v>
       </c>
       <c r="E35" s="72">
         <v>6</v>
@@ -2750,13 +2711,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D36" s="67" t="s">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="E36" s="72"/>
       <c r="G36" s="74"/>
@@ -2766,13 +2727,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="72">
         <v>6</v>
@@ -2799,7 +2760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -2833,7 +2794,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
@@ -2841,57 +2802,57 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2935,7 +2896,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.8" thickBot="1">
       <c r="A2" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2947,25 +2908,25 @@
     </row>
     <row r="3" spans="1:8" ht="41.4">
       <c r="A3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="F3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G3" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="H3" s="14"/>
     </row>
@@ -2974,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>37</v>
@@ -2983,13 +2944,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="11"/>
     </row>
@@ -2998,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>37</v>
@@ -3007,13 +2968,13 @@
         <v>12</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="12"/>
     </row>
@@ -3022,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>37</v>
@@ -3031,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>101</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -3046,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>37</v>
@@ -3055,13 +3016,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="12"/>
     </row>
@@ -3070,22 +3031,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="27">
         <v>7</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="12"/>
     </row>
@@ -3094,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>37</v>
@@ -3103,13 +3064,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H9" s="12"/>
     </row>
@@ -3118,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>37</v>
@@ -3127,13 +3088,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -3142,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>37</v>
@@ -3151,16 +3112,16 @@
         <v>15</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3168,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>37</v>
@@ -3177,13 +3138,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -3192,7 +3153,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>37</v>
@@ -3201,16 +3162,16 @@
         <v>45</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="69">
@@ -3218,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>37</v>
@@ -3227,13 +3188,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="14"/>
     </row>
@@ -3242,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>37</v>
@@ -3251,13 +3212,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -3266,25 +3227,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="32">
         <v>7</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3292,22 +3253,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="27">
         <v>7</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -3316,22 +3277,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="27">
         <v>7</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -3340,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>37</v>
@@ -3349,13 +3310,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -3364,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>37</v>
@@ -3373,13 +3334,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -3388,7 +3349,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>37</v>
@@ -3397,13 +3358,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -3412,22 +3373,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="E22" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -3436,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>37</v>
@@ -3445,13 +3406,13 @@
         <v>8</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H23" s="12"/>
     </row>
@@ -3460,7 +3421,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>37</v>
@@ -3469,13 +3430,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="12"/>
     </row>
@@ -3484,7 +3445,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>37</v>
@@ -3493,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="12"/>
     </row>
@@ -3508,22 +3469,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" s="27">
         <v>7</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H26" s="85"/>
     </row>
@@ -3532,22 +3493,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="27">
         <v>7</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H27" s="85"/>
     </row>
@@ -3556,7 +3517,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>37</v>
@@ -3565,13 +3526,13 @@
         <v>8</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="12"/>
     </row>
@@ -3580,22 +3541,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" s="27">
         <v>10</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H29" s="12"/>
     </row>
@@ -3604,22 +3565,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="27">
         <v>7</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H30" s="12"/>
     </row>
@@ -3628,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>37</v>
@@ -3637,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H31" s="12"/>
     </row>
@@ -3652,7 +3613,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>37</v>
@@ -3661,13 +3622,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H32" s="12"/>
     </row>
@@ -3676,7 +3637,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>37</v>
@@ -3685,13 +3646,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H33" s="12"/>
     </row>
@@ -3700,7 +3661,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>37</v>
@@ -3709,13 +3670,13 @@
         <v>12</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H34" s="12"/>
     </row>
@@ -3724,7 +3685,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>37</v>
@@ -3733,13 +3694,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H35" s="12"/>
     </row>
@@ -3748,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>37</v>
@@ -3757,13 +3718,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H36" s="12"/>
     </row>
@@ -3772,7 +3733,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>37</v>
@@ -3781,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H37" s="12"/>
     </row>
@@ -3796,7 +3757,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>37</v>
@@ -3805,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H38" s="12"/>
     </row>
@@ -3820,7 +3781,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>37</v>
@@ -3829,13 +3790,13 @@
         <v>12</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H39" s="12"/>
     </row>
@@ -3844,7 +3805,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>37</v>
@@ -3853,16 +3814,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F40" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3870,7 +3831,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>37</v>
@@ -3879,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H41" s="12"/>
     </row>
@@ -3894,7 +3855,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>37</v>
@@ -3903,13 +3864,13 @@
         <v>6</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H42" s="12"/>
     </row>
@@ -3918,22 +3879,22 @@
         <v>40</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="27">
         <v>10</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H43" s="12"/>
     </row>
@@ -3942,7 +3903,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>37</v>
@@ -3951,13 +3912,13 @@
         <v>7</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H44" s="12"/>
     </row>
@@ -3966,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>37</v>
@@ -3975,13 +3936,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H45" s="12"/>
     </row>
@@ -3990,22 +3951,22 @@
         <v>43</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="27">
         <v>7</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H46" s="12"/>
     </row>
@@ -4014,7 +3975,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>37</v>
@@ -4023,13 +3984,13 @@
         <v>12</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H47" s="12"/>
     </row>
@@ -4038,7 +3999,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>37</v>
@@ -4047,13 +4008,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H48" s="12"/>
     </row>
@@ -4062,7 +4023,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>37</v>
@@ -4071,13 +4032,13 @@
         <v>5</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H49" s="12"/>
     </row>
@@ -4086,7 +4047,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>37</v>
@@ -4095,13 +4056,13 @@
         <v>80</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H50" s="12"/>
     </row>
@@ -4110,7 +4071,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>37</v>
@@ -4119,13 +4080,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H51" s="12"/>
     </row>
@@ -4134,7 +4095,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>37</v>
@@ -4143,13 +4104,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H52" s="12"/>
     </row>
@@ -4158,7 +4119,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>37</v>
@@ -4167,13 +4128,13 @@
         <v>12</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H53" s="12"/>
     </row>
@@ -4182,7 +4143,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>37</v>
@@ -4191,13 +4152,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H54" s="12"/>
     </row>
@@ -4206,7 +4167,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>37</v>
@@ -4215,13 +4176,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H55" s="12"/>
     </row>
@@ -4230,7 +4191,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C56" s="25" t="s">
         <v>37</v>
@@ -4239,13 +4200,13 @@
         <v>12</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H56" s="12"/>
     </row>
@@ -4254,7 +4215,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>37</v>
@@ -4263,16 +4224,16 @@
         <v>12</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4280,22 +4241,22 @@
         <v>55</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D58" s="27">
         <v>7</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H58" s="12"/>
     </row>
@@ -4304,7 +4265,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>37</v>
@@ -4313,13 +4274,13 @@
         <v>8</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H59" s="12"/>
     </row>
@@ -4328,22 +4289,22 @@
         <v>57</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D60" s="27">
         <v>7</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H60" s="12"/>
     </row>
@@ -4352,7 +4313,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>37</v>
@@ -4361,13 +4322,13 @@
         <v>8</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H61" s="12"/>
     </row>
@@ -4376,22 +4337,22 @@
         <v>59</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D62" s="27">
         <v>10</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H62" s="12"/>
     </row>
@@ -4400,22 +4361,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63" s="27">
         <v>10</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H63" s="12"/>
     </row>
@@ -4424,7 +4385,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>37</v>
@@ -4433,13 +4394,13 @@
         <v>8</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H64" s="16"/>
     </row>
@@ -4457,16 +4418,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4474,7 +4435,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>37</v>
@@ -4483,13 +4444,13 @@
         <v>1</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H66" s="12"/>
     </row>
@@ -4498,7 +4459,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>37</v>
@@ -4507,13 +4468,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H67" s="12"/>
     </row>
@@ -4522,7 +4483,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>37</v>
@@ -4531,13 +4492,13 @@
         <v>40</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H68" s="12"/>
     </row>
@@ -4546,7 +4507,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>37</v>
@@ -4555,13 +4516,13 @@
         <v>1</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H69" s="17"/>
     </row>
@@ -4570,7 +4531,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>37</v>
@@ -4579,13 +4540,13 @@
         <v>6</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H70" s="18"/>
     </row>
@@ -4594,22 +4555,22 @@
         <v>68</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D71" s="27">
         <v>10</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H71" s="18"/>
     </row>
@@ -4646,7 +4607,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -4668,22 +4629,22 @@
     </row>
     <row r="3" spans="1:8" ht="27.6">
       <c r="A3" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>205</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>207</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4693,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="52">
         <v>12</v>
@@ -4711,10 +4672,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="52">
         <v>12</v>
@@ -4729,17 +4690,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="52">
         <v>1</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4749,19 +4710,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" s="52">
         <v>7</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4771,10 +4732,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="52">
         <v>15</v>
@@ -4789,10 +4750,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" s="52">
         <v>40</v>
@@ -4807,10 +4768,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="52">
         <v>9</v>
@@ -4825,19 +4786,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" s="52">
         <v>7</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4847,19 +4808,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" s="52">
         <v>7</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00252FC3-FFB5-40A3-9921-FFA9C00247D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE65271-9F77-472E-8301-10CAC7738C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="256">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1078,6 +1078,28 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>BranchNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaHCode</t>
+  </si>
+  <si>
+    <t>訂正別</t>
+  </si>
+  <si>
+    <t>0:正常
+1:訂正
+2:被訂正
+3:沖正
+4:被沖正</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2058,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2740,6 +2762,43 @@
       </c>
       <c r="G37" s="74"/>
     </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="75">
+        <v>30</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="81">
+      <c r="A39" s="75">
+        <v>31</v>
+      </c>
+      <c r="B39" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
@@ -2750,7 +2809,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
